--- a/Assets/csv/工作簿1.xlsx
+++ b/Assets/csv/工作簿1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="250">
   <si>
     <t>朋友們，2024年11月1日</t>
   </si>
@@ -275,12 +275,18 @@
     <t>它確實有那麼一種</t>
   </si>
   <si>
+    <t>转变</t>
+  </si>
+  <si>
     <t>你可以看到市場框架有一種轉變的意思</t>
   </si>
   <si>
     <t>你可以看到高點高點低點低點高點</t>
   </si>
   <si>
+    <t>跌</t>
+  </si>
+  <si>
     <t>然後跌回來嗎</t>
   </si>
   <si>
@@ -291,6 +297,9 @@
   </si>
   <si>
     <t>因為我們知道一個情況</t>
+  </si>
+  <si>
+    <t>M顶</t>
   </si>
   <si>
     <t>就是M頂，這個M頂我們畫出來</t>
@@ -1914,8 +1923,8 @@
   <sheetPr/>
   <dimension ref="A1:C238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2153,7 +2162,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="3:3">
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
       <c r="C41" t="s">
         <v>52</v>
       </c>
@@ -2278,7 +2290,10 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="3:3">
+    <row r="68" spans="2:3">
+      <c r="B68" t="s">
+        <v>48</v>
+      </c>
       <c r="C68" t="s">
         <v>77</v>
       </c>
@@ -2303,834 +2318,843 @@
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="3:3">
+    <row r="73" spans="2:3">
+      <c r="B73" t="s">
+        <v>82</v>
+      </c>
       <c r="C73" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="75" spans="3:3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75" t="s">
+        <v>85</v>
+      </c>
       <c r="C75" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="3:3">
       <c r="C78" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="79" spans="3:3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79" t="s">
+        <v>90</v>
+      </c>
       <c r="C79" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="3:3">
       <c r="C102" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="3:3">
       <c r="C103" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="3:3">
       <c r="C104" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="3:3">
       <c r="C105" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="3:3">
       <c r="C106" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="3:3">
       <c r="C107" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="3:3">
       <c r="C108" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="3:3">
       <c r="C109" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="3:3">
       <c r="C110" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="3:3">
       <c r="C111" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="3:3">
       <c r="C112" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="3:3">
       <c r="C113" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="3:3">
       <c r="C114" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="3:3">
       <c r="C115" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="3:3">
       <c r="C116" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="3:3">
       <c r="C117" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118" spans="3:3">
       <c r="C118" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="3:3">
       <c r="C119" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120" spans="3:3">
       <c r="C120" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="3:3">
       <c r="C121" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122" spans="3:3">
       <c r="C122" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="3:3">
       <c r="C123" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124" spans="3:3">
       <c r="C124" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="3:3">
       <c r="C125" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="126" spans="3:3">
       <c r="C126" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127" spans="3:3">
       <c r="C127" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="128" spans="3:3">
       <c r="C128" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129" spans="3:3">
       <c r="C129" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="3:3">
       <c r="C130" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131" spans="3:3">
       <c r="C131" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="132" spans="3:3">
       <c r="C132" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="3:3">
       <c r="C133" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="3:3">
       <c r="C134" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="3:3">
       <c r="C135" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="136" spans="3:3">
       <c r="C136" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137" spans="3:3">
       <c r="C137" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="138" spans="3:3">
       <c r="C138" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="139" spans="3:3">
       <c r="C139" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="140" spans="3:3">
       <c r="C140" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="141" spans="3:3">
       <c r="C141" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="142" spans="3:3">
       <c r="C142" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="143" spans="3:3">
       <c r="C143" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="144" spans="3:3">
       <c r="C144" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="145" spans="3:3">
       <c r="C145" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="146" spans="3:3">
       <c r="C146" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="147" spans="3:3">
       <c r="C147" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="148" spans="3:3">
       <c r="C148" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="149" spans="3:3">
       <c r="C149" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="150" spans="3:3">
       <c r="C150" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="151" spans="3:3">
       <c r="C151" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="152" spans="3:3">
       <c r="C152" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="153" spans="3:3">
       <c r="C153" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="154" spans="3:3">
       <c r="C154" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="155" spans="3:3">
       <c r="C155" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="156" spans="3:3">
       <c r="C156" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="157" spans="3:3">
       <c r="C157" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="158" spans="3:3">
       <c r="C158" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="159" spans="3:3">
       <c r="C159" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="160" spans="3:3">
       <c r="C160" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="161" spans="3:3">
       <c r="C161" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="162" spans="3:3">
       <c r="C162" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="163" spans="3:3">
       <c r="C163" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="164" spans="3:3">
       <c r="C164" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="165" spans="3:3">
       <c r="C165" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="166" spans="3:3">
       <c r="C166" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="167" spans="3:3">
       <c r="C167" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="168" spans="3:3">
       <c r="C168" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="169" spans="3:3">
       <c r="C169" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="170" spans="3:3">
       <c r="C170" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="171" spans="3:3">
       <c r="C171" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="172" spans="3:3">
       <c r="C172" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="173" spans="3:3">
       <c r="C173" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="174" spans="3:3">
       <c r="C174" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="175" spans="3:3">
       <c r="C175" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="176" spans="3:3">
       <c r="C176" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="177" spans="3:3">
       <c r="C177" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="178" spans="3:3">
       <c r="C178" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="179" spans="3:3">
       <c r="C179" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="180" spans="3:3">
       <c r="C180" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="181" spans="3:3">
       <c r="C181" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="182" spans="3:3">
       <c r="C182" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="183" spans="3:3">
       <c r="C183" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="184" spans="3:3">
       <c r="C184" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="185" spans="3:3">
       <c r="C185" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="186" spans="3:3">
       <c r="C186" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="187" spans="3:3">
       <c r="C187" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="188" spans="3:3">
       <c r="C188" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="189" spans="3:3">
       <c r="C189" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="190" spans="3:3">
       <c r="C190" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="191" spans="3:3">
       <c r="C191" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="192" spans="3:3">
       <c r="C192" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="193" spans="3:3">
       <c r="C193" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="194" spans="3:3">
       <c r="C194" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="195" spans="3:3">
       <c r="C195" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="196" spans="3:3">
       <c r="C196" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="197" spans="3:3">
       <c r="C197" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="198" spans="3:3">
       <c r="C198" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="199" spans="3:3">
       <c r="C199" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="200" spans="3:3">
       <c r="C200" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="201" spans="3:3">
       <c r="C201" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="202" spans="3:3">
       <c r="C202" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="203" spans="3:3">
       <c r="C203" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="204" spans="3:3">
       <c r="C204" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="205" spans="3:3">
       <c r="C205" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="206" spans="3:3">
       <c r="C206" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="207" spans="3:3">
       <c r="C207" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="208" spans="3:3">
       <c r="C208" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="209" spans="3:3">
       <c r="C209" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="210" spans="3:3">
       <c r="C210" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="211" spans="3:3">
       <c r="C211" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="212" spans="3:3">
       <c r="C212" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="213" spans="3:3">
       <c r="C213" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="214" spans="3:3">
       <c r="C214" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="215" spans="3:3">
       <c r="C215" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="216" spans="3:3">
       <c r="C216" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="217" spans="3:3">
       <c r="C217" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="218" spans="3:3">
       <c r="C218" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="219" spans="3:3">
       <c r="C219" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="220" spans="3:3">
       <c r="C220" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="221" spans="3:3">
       <c r="C221" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="222" spans="3:3">
       <c r="C222" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="223" spans="3:3">
       <c r="C223" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="224" spans="3:3">
       <c r="C224" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="225" spans="3:3">
       <c r="C225" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="226" spans="3:3">
       <c r="C226" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="227" spans="3:3">
       <c r="C227" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="228" spans="3:3">
       <c r="C228" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="229" spans="3:3">
       <c r="C229" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="230" spans="3:3">
       <c r="C230" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="231" spans="3:3">
       <c r="C231" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="232" spans="3:3">
       <c r="C232" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="233" spans="3:3">
       <c r="C233" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="234" spans="3:3">
       <c r="C234" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="235" spans="3:3">
       <c r="C235" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="236" spans="3:3">
       <c r="C236" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="237" spans="3:3">
       <c r="C237" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="238" spans="3:3">
       <c r="C238" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
